--- a/data/input/PC/crnp/hourly_CRNP.xlsx
+++ b/data/input/PC/crnp/hourly_CRNP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@ Project_CRNP\99.Data\02.PC\01.Input\02.CRNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02.Data\05.CRNP\01.KOSMOS\KOSMOSv3\data\input\PC\crnp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012ED35E-833B-42DF-8145-B77BC282A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B057A-080D-4BBD-92CA-3EF6BE488D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{999FB784-BDCF-45FF-9345-F5927768A3A1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21075" windowHeight="15405" xr2:uid="{999FB784-BDCF-45FF-9345-F5927768A3A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Hour1_PyeongChang</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>RECORD</t>
@@ -114,6 +111,10 @@
   </si>
   <si>
     <t>Tot</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875CF27F-48EE-4E8A-9AD3-49F2F074EEA4}">
   <dimension ref="A1:I2167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
-      <selection activeCell="A842" sqref="A842:I2167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,80 +540,80 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
